--- a/data/sediment_trap_data/sed_trap_dates.xlsx
+++ b/data/sediment_trap_data/sed_trap_dates.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>HBN3-CP</t>
   </si>
@@ -91,6 +91,27 @@
   <si>
     <t>HBNC1-CP</t>
   </si>
+  <si>
+    <t>HBN1-CR</t>
+  </si>
+  <si>
+    <t>HBN2-CR</t>
+  </si>
+  <si>
+    <t>HBS1-CP</t>
+  </si>
+  <si>
+    <t>HBS2-CP</t>
+  </si>
+  <si>
+    <t>R3S1-CP</t>
+  </si>
+  <si>
+    <t>R3S3-SG</t>
+  </si>
+  <si>
+    <t>R3SC1-CP</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +403,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -399,6 +420,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,12 +844,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="R47" sqref="R47:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,313 +873,259 @@
     <col min="26" max="26" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="11">
         <v>41568</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="9"/>
+      <c r="E1" s="7">
+        <v>41898</v>
+      </c>
+      <c r="F1" s="7">
+        <v>41929</v>
+      </c>
+      <c r="G1" s="7">
+        <v>41957</v>
+      </c>
+      <c r="H1" s="7">
+        <v>41986</v>
+      </c>
+      <c r="I1" s="7">
+        <v>42048</v>
+      </c>
+      <c r="J1" s="7">
+        <v>42095</v>
+      </c>
+      <c r="K1" s="7">
+        <v>42143</v>
+      </c>
+      <c r="L1" s="7">
+        <v>42171</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11">
         <v>41596</v>
       </c>
-      <c r="E1" s="7">
+      <c r="D2" s="9"/>
+      <c r="E2" s="7">
+        <v>41929</v>
+      </c>
+      <c r="F2" s="7">
+        <v>41957</v>
+      </c>
+      <c r="G2" s="7">
+        <v>41986</v>
+      </c>
+      <c r="H2" s="7">
+        <v>42048</v>
+      </c>
+      <c r="I2" s="7">
+        <v>42095</v>
+      </c>
+      <c r="J2" s="7">
+        <v>42143</v>
+      </c>
+      <c r="K2" s="7">
+        <v>42171</v>
+      </c>
+      <c r="L2" s="11">
+        <v>42205</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
+        <v>41568</v>
+      </c>
+      <c r="D3" s="11">
+        <v>41596</v>
+      </c>
+      <c r="E3" s="11">
         <v>41626</v>
       </c>
-      <c r="F1" s="7">
-        <v>41653</v>
-      </c>
-      <c r="G1" s="7">
+      <c r="F3" s="11">
+        <v>41654</v>
+      </c>
+      <c r="G3" s="11">
         <v>41678</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H3" s="11">
+        <v>41703</v>
+      </c>
+      <c r="I3" s="11">
+        <v>41733</v>
+      </c>
+      <c r="J3" s="11">
+        <v>41762</v>
+      </c>
+      <c r="K3" s="11">
+        <v>41788</v>
+      </c>
+      <c r="L3" s="11">
+        <v>41815</v>
+      </c>
+      <c r="M3" s="11">
+        <v>41842</v>
+      </c>
+      <c r="N3" s="11">
+        <v>41870</v>
+      </c>
+      <c r="O3" s="7">
+        <v>41898</v>
+      </c>
+      <c r="P3" s="7">
+        <v>41929</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>41957</v>
+      </c>
+      <c r="R3" s="7">
+        <v>41986</v>
+      </c>
+      <c r="S3" s="7">
+        <v>42048</v>
+      </c>
+      <c r="T3" s="7">
+        <v>42095</v>
+      </c>
+      <c r="U3" s="7">
+        <v>42143</v>
+      </c>
+      <c r="V3" s="7">
+        <v>42171</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
+        <v>41596</v>
+      </c>
+      <c r="D4" s="11">
+        <v>41626</v>
+      </c>
+      <c r="E4" s="11">
+        <v>41654</v>
+      </c>
+      <c r="F4" s="11">
+        <v>41678</v>
+      </c>
+      <c r="G4" s="11">
         <v>41704</v>
       </c>
-      <c r="I1" s="7">
-        <v>41732</v>
-      </c>
-      <c r="J1" s="7">
+      <c r="H4" s="11">
+        <v>41733</v>
+      </c>
+      <c r="I4" s="11">
         <v>41762</v>
       </c>
-      <c r="K1" s="7">
-        <v>41787</v>
-      </c>
-      <c r="L1" s="7">
+      <c r="J4" s="11">
+        <v>41788</v>
+      </c>
+      <c r="K4" s="11">
         <v>41815</v>
       </c>
-      <c r="M1" s="7">
+      <c r="L4" s="11">
         <v>41842</v>
       </c>
-      <c r="N1" s="7">
+      <c r="M4" s="11">
         <v>41870</v>
       </c>
-      <c r="O1" s="7">
+      <c r="N4" s="11">
         <v>41898</v>
       </c>
-      <c r="P1" s="7">
+      <c r="O4" s="7">
         <v>41929</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="P4" s="7">
         <v>41957</v>
       </c>
-      <c r="R1" s="7">
+      <c r="Q4" s="7">
         <v>41986</v>
       </c>
-      <c r="S1" s="7">
+      <c r="R4" s="7">
         <v>42048</v>
       </c>
-      <c r="T1" s="7">
+      <c r="S4" s="7">
         <v>42095</v>
       </c>
-      <c r="U1" s="7">
+      <c r="T4" s="7">
         <v>42143</v>
       </c>
-      <c r="V1" s="7">
-        <v>42177</v>
-      </c>
-      <c r="W1" s="7">
-        <v>42591</v>
-      </c>
-      <c r="X1" s="7">
-        <v>42619</v>
-      </c>
-      <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7">
-        <v>41596</v>
-      </c>
-      <c r="D2" s="7">
-        <v>41626</v>
-      </c>
-      <c r="E2" s="7">
-        <v>41653</v>
-      </c>
-      <c r="F2" s="7">
-        <v>41678</v>
-      </c>
-      <c r="G2" s="7">
-        <v>41704</v>
-      </c>
-      <c r="H2" s="7">
-        <v>41732</v>
-      </c>
-      <c r="I2" s="7">
-        <v>41762</v>
-      </c>
-      <c r="J2" s="7">
-        <v>41787</v>
-      </c>
-      <c r="K2" s="7">
-        <v>41815</v>
-      </c>
-      <c r="L2" s="7">
-        <v>41842</v>
-      </c>
-      <c r="M2" s="7">
-        <v>41870</v>
-      </c>
-      <c r="N2" s="7">
-        <v>41898</v>
-      </c>
-      <c r="O2" s="7">
-        <v>41929</v>
-      </c>
-      <c r="P2" s="7">
-        <v>41957</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>41986</v>
-      </c>
-      <c r="R2" s="7">
-        <v>42048</v>
-      </c>
-      <c r="S2" s="7">
-        <v>42095</v>
-      </c>
-      <c r="T2" s="7">
-        <v>42143</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="U4" s="7">
         <v>42171</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V4" s="11">
         <v>42205</v>
       </c>
-      <c r="W2" s="7">
-        <v>42619</v>
-      </c>
-      <c r="X2" s="7">
-        <v>42687</v>
-      </c>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7">
-        <v>41562</v>
-      </c>
-      <c r="D3" s="7">
-        <v>41590</v>
-      </c>
-      <c r="E3" s="7">
-        <v>41652</v>
-      </c>
-      <c r="F3" s="7">
-        <v>41677</v>
-      </c>
-      <c r="G3" s="7">
-        <v>41704</v>
-      </c>
-      <c r="H3" s="7">
-        <v>41731</v>
-      </c>
-      <c r="I3" s="7">
-        <v>41762</v>
-      </c>
-      <c r="J3" s="7">
-        <v>41788</v>
-      </c>
-      <c r="K3" s="7">
-        <v>41815</v>
-      </c>
-      <c r="L3" s="7">
-        <v>41842</v>
-      </c>
-      <c r="M3" s="7">
-        <v>41870</v>
-      </c>
-      <c r="N3" s="7">
-        <v>41898</v>
-      </c>
-      <c r="O3" s="7">
-        <v>41929</v>
-      </c>
-      <c r="P3" s="7">
-        <v>41957</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>41986</v>
-      </c>
-      <c r="R3" s="7">
-        <v>42048</v>
-      </c>
-      <c r="S3" s="7">
-        <v>42095</v>
-      </c>
-      <c r="T3" s="7">
-        <v>42143</v>
-      </c>
-      <c r="U3" s="7">
-        <v>42177</v>
-      </c>
-      <c r="V3" s="7">
-        <v>42591</v>
-      </c>
-      <c r="W3" s="7">
-        <v>42619</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7">
-        <v>41590</v>
-      </c>
-      <c r="D4" s="7">
-        <v>41652</v>
-      </c>
-      <c r="E4" s="7">
-        <v>41677</v>
-      </c>
-      <c r="F4" s="7">
-        <v>41704</v>
-      </c>
-      <c r="G4" s="7">
-        <v>41731</v>
-      </c>
-      <c r="H4" s="7">
-        <v>41762</v>
-      </c>
-      <c r="I4" s="7">
-        <v>41788</v>
-      </c>
-      <c r="J4" s="7">
-        <v>41815</v>
-      </c>
-      <c r="K4" s="7">
-        <v>41841</v>
-      </c>
-      <c r="L4" s="7">
-        <v>41870</v>
-      </c>
-      <c r="M4" s="7">
-        <v>41898</v>
-      </c>
-      <c r="N4" s="7">
-        <v>41929</v>
-      </c>
-      <c r="O4" s="7">
-        <v>41957</v>
-      </c>
-      <c r="P4" s="7">
-        <v>41986</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>42048</v>
-      </c>
-      <c r="R4" s="7">
-        <v>42095</v>
-      </c>
-      <c r="S4" s="7">
-        <v>42143</v>
-      </c>
-      <c r="T4" s="7">
-        <v>42171</v>
-      </c>
-      <c r="U4" s="7">
-        <v>42205</v>
-      </c>
-      <c r="V4" s="7">
-        <v>42619</v>
-      </c>
-      <c r="W4" s="7">
-        <v>42686</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>41566</v>
+        <v>41568</v>
       </c>
       <c r="D5" s="7">
         <v>41596</v>
@@ -1161,25 +1134,25 @@
         <v>41626</v>
       </c>
       <c r="F5" s="7">
-        <v>41667</v>
+        <v>41653</v>
       </c>
       <c r="G5" s="7">
         <v>41678</v>
       </c>
       <c r="H5" s="7">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="I5" s="7">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="J5" s="7">
-        <v>41759</v>
+        <v>41762</v>
       </c>
       <c r="K5" s="7">
         <v>41787</v>
       </c>
       <c r="L5" s="7">
-        <v>41816</v>
+        <v>41815</v>
       </c>
       <c r="M5" s="7">
         <v>41842</v>
@@ -1212,7 +1185,7 @@
         <v>42177</v>
       </c>
       <c r="W5" s="7">
-        <v>42590</v>
+        <v>42591</v>
       </c>
       <c r="X5" s="7">
         <v>42619</v>
@@ -1221,7 +1194,7 @@
     </row>
     <row r="6" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1233,25 +1206,25 @@
         <v>41626</v>
       </c>
       <c r="E6" s="7">
-        <v>41667</v>
+        <v>41653</v>
       </c>
       <c r="F6" s="7">
         <v>41678</v>
       </c>
       <c r="G6" s="7">
-        <v>41703</v>
+        <v>41704</v>
       </c>
       <c r="H6" s="7">
-        <v>41731</v>
+        <v>41732</v>
       </c>
       <c r="I6" s="7">
-        <v>41759</v>
+        <v>41762</v>
       </c>
       <c r="J6" s="7">
         <v>41787</v>
       </c>
       <c r="K6" s="7">
-        <v>41816</v>
+        <v>41815</v>
       </c>
       <c r="L6" s="7">
         <v>41842</v>
@@ -1296,155 +1269,161 @@
     </row>
     <row r="7" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>41567</v>
+        <v>41562</v>
       </c>
       <c r="D7" s="7">
-        <v>41596</v>
+        <v>41590</v>
       </c>
       <c r="E7" s="7">
-        <v>41626</v>
+        <v>41652</v>
       </c>
       <c r="F7" s="7">
-        <v>41667</v>
+        <v>41677</v>
       </c>
       <c r="G7" s="7">
-        <v>41678</v>
+        <v>41704</v>
       </c>
       <c r="H7" s="7">
-        <v>41703</v>
+        <v>41731</v>
       </c>
       <c r="I7" s="7">
-        <v>41731</v>
+        <v>41762</v>
       </c>
       <c r="J7" s="7">
-        <v>41759</v>
+        <v>41788</v>
       </c>
       <c r="K7" s="7">
-        <v>41787</v>
+        <v>41815</v>
       </c>
       <c r="L7" s="7">
-        <v>41816</v>
+        <v>41842</v>
       </c>
       <c r="M7" s="7">
-        <v>41842</v>
+        <v>41870</v>
       </c>
       <c r="N7" s="7">
-        <v>41870</v>
+        <v>41898</v>
       </c>
       <c r="O7" s="7">
-        <v>41898</v>
+        <v>41929</v>
       </c>
       <c r="P7" s="7">
-        <v>41929</v>
+        <v>41957</v>
       </c>
       <c r="Q7" s="7">
-        <v>41957</v>
+        <v>41986</v>
       </c>
       <c r="R7" s="7">
-        <v>41986</v>
+        <v>42048</v>
       </c>
       <c r="S7" s="7">
-        <v>42048</v>
+        <v>42095</v>
       </c>
       <c r="T7" s="7">
-        <v>42095</v>
+        <v>42143</v>
       </c>
       <c r="U7" s="7">
-        <v>42143</v>
+        <v>42177</v>
       </c>
       <c r="V7" s="7">
-        <v>42177</v>
-      </c>
-      <c r="W7" s="7"/>
+        <v>42591</v>
+      </c>
+      <c r="W7" s="7">
+        <v>42619</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
+      <c r="Z7"/>
     </row>
     <row r="8" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>41596</v>
+        <v>41590</v>
       </c>
       <c r="D8" s="7">
-        <v>41626</v>
+        <v>41652</v>
       </c>
       <c r="E8" s="7">
-        <v>41667</v>
+        <v>41677</v>
       </c>
       <c r="F8" s="7">
-        <v>41678</v>
+        <v>41704</v>
       </c>
       <c r="G8" s="7">
-        <v>41703</v>
+        <v>41731</v>
       </c>
       <c r="H8" s="7">
-        <v>41731</v>
+        <v>41762</v>
       </c>
       <c r="I8" s="7">
-        <v>41759</v>
+        <v>41788</v>
       </c>
       <c r="J8" s="7">
-        <v>41787</v>
+        <v>41815</v>
       </c>
       <c r="K8" s="7">
-        <v>41816</v>
+        <v>41841</v>
       </c>
       <c r="L8" s="7">
-        <v>41842</v>
+        <v>41870</v>
       </c>
       <c r="M8" s="7">
-        <v>41870</v>
+        <v>41898</v>
       </c>
       <c r="N8" s="7">
-        <v>41898</v>
+        <v>41929</v>
       </c>
       <c r="O8" s="7">
-        <v>41929</v>
+        <v>41957</v>
       </c>
       <c r="P8" s="7">
-        <v>41957</v>
+        <v>41986</v>
       </c>
       <c r="Q8" s="7">
-        <v>41986</v>
+        <v>42048</v>
       </c>
       <c r="R8" s="7">
-        <v>42048</v>
+        <v>42095</v>
       </c>
       <c r="S8" s="7">
-        <v>42095</v>
+        <v>42143</v>
       </c>
       <c r="T8" s="7">
-        <v>42143</v>
+        <v>42171</v>
       </c>
       <c r="U8" s="7">
-        <v>42171</v>
+        <v>42205</v>
       </c>
       <c r="V8" s="7">
-        <v>42205</v>
-      </c>
-      <c r="W8" s="7"/>
+        <v>42619</v>
+      </c>
+      <c r="W8" s="7">
+        <v>42686</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
+      <c r="Z8"/>
     </row>
     <row r="9" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>41565</v>
+        <v>41566</v>
       </c>
       <c r="D9" s="7">
         <v>41596</v>
@@ -1453,28 +1432,28 @@
         <v>41626</v>
       </c>
       <c r="F9" s="7">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="G9" s="7">
-        <v>41677</v>
+        <v>41678</v>
       </c>
       <c r="H9" s="7">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="I9" s="7">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="J9" s="7">
-        <v>41759</v>
+        <v>41762</v>
       </c>
       <c r="K9" s="7">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="L9" s="7">
         <v>41816</v>
       </c>
       <c r="M9" s="7">
-        <v>41840</v>
+        <v>41842</v>
       </c>
       <c r="N9" s="7">
         <v>41870</v>
@@ -1501,19 +1480,16 @@
         <v>42143</v>
       </c>
       <c r="V9" s="7">
-        <v>42177</v>
-      </c>
-      <c r="W9" s="7">
-        <v>42590</v>
-      </c>
-      <c r="X9" s="7">
-        <v>42619</v>
-      </c>
+        <v>42171</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
+      <c r="Z9"/>
     </row>
     <row r="10" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1525,28 +1501,28 @@
         <v>41626</v>
       </c>
       <c r="E10" s="7">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="F10" s="7">
-        <v>41677</v>
+        <v>41678</v>
       </c>
       <c r="G10" s="7">
-        <v>41704</v>
+        <v>41705</v>
       </c>
       <c r="H10" s="7">
-        <v>41731</v>
+        <v>41733</v>
       </c>
       <c r="I10" s="7">
-        <v>41759</v>
+        <v>41762</v>
       </c>
       <c r="J10" s="7">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="K10" s="7">
         <v>41816</v>
       </c>
       <c r="L10" s="7">
-        <v>41840</v>
+        <v>41842</v>
       </c>
       <c r="M10" s="7">
         <v>41870</v>
@@ -1578,91 +1554,86 @@
       <c r="V10" s="7">
         <v>42205</v>
       </c>
-      <c r="W10" s="7">
-        <v>42619</v>
-      </c>
-      <c r="X10" s="7">
-        <v>42687</v>
-      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
+      <c r="Z10"/>
     </row>
     <row r="11" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>41570</v>
+        <v>41566</v>
       </c>
       <c r="D11" s="7">
         <v>41596</v>
       </c>
       <c r="E11" s="7">
-        <v>41657</v>
+        <v>41626</v>
       </c>
       <c r="F11" s="7">
-        <v>41687</v>
+        <v>41652</v>
       </c>
       <c r="G11" s="7">
-        <v>41718</v>
+        <v>41678</v>
       </c>
       <c r="H11" s="7">
-        <v>41745</v>
+        <v>41705</v>
       </c>
       <c r="I11" s="7">
-        <v>41783</v>
+        <v>41733</v>
       </c>
       <c r="J11" s="7">
-        <v>41812</v>
+        <v>41762</v>
       </c>
       <c r="K11" s="7">
+        <v>41788</v>
+      </c>
+      <c r="L11" s="7">
+        <v>41816</v>
+      </c>
+      <c r="M11" s="7">
         <v>41840</v>
       </c>
-      <c r="L11" s="7">
-        <v>41867</v>
-      </c>
-      <c r="M11" s="7">
-        <v>41896</v>
-      </c>
       <c r="N11" s="7">
-        <v>41930</v>
+        <v>41870</v>
       </c>
       <c r="O11" s="7">
-        <v>41981</v>
+        <v>41898</v>
       </c>
       <c r="P11" s="7">
-        <v>42009</v>
+        <v>41929</v>
       </c>
       <c r="Q11" s="7">
-        <v>42078</v>
+        <v>41957</v>
       </c>
       <c r="R11" s="7">
-        <v>42106</v>
+        <v>41986</v>
       </c>
       <c r="S11" s="7">
-        <v>42134</v>
+        <v>42048</v>
       </c>
       <c r="T11" s="7">
-        <v>42162</v>
+        <v>42095</v>
       </c>
       <c r="U11" s="7">
-        <v>42172</v>
+        <v>42143</v>
       </c>
       <c r="V11" s="7">
-        <v>42592</v>
-      </c>
-      <c r="W11" s="7">
-        <v>42620</v>
-      </c>
+        <v>42171</v>
+      </c>
+      <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
@@ -1671,931 +1642,999 @@
         <v>41596</v>
       </c>
       <c r="D12" s="7">
-        <v>41657</v>
+        <v>41626</v>
       </c>
       <c r="E12" s="7">
-        <v>41687</v>
+        <v>41652</v>
       </c>
       <c r="F12" s="7">
-        <v>41718</v>
+        <v>41678</v>
       </c>
       <c r="G12" s="7">
-        <v>41745</v>
+        <v>41705</v>
       </c>
       <c r="H12" s="7">
-        <v>41783</v>
+        <v>41733</v>
       </c>
       <c r="I12" s="7">
-        <v>41812</v>
+        <v>41762</v>
       </c>
       <c r="J12" s="7">
+        <v>41788</v>
+      </c>
+      <c r="K12" s="7">
+        <v>41816</v>
+      </c>
+      <c r="L12" s="7">
         <v>41840</v>
       </c>
-      <c r="K12" s="7">
-        <v>41867</v>
-      </c>
-      <c r="L12" s="7">
-        <v>41896</v>
-      </c>
       <c r="M12" s="7">
-        <v>41930</v>
+        <v>41870</v>
       </c>
       <c r="N12" s="7">
-        <v>41981</v>
+        <v>41898</v>
       </c>
       <c r="O12" s="7">
-        <v>42009</v>
+        <v>41929</v>
       </c>
       <c r="P12" s="7">
-        <v>42078</v>
+        <v>41957</v>
       </c>
       <c r="Q12" s="7">
-        <v>42106</v>
+        <v>41986</v>
       </c>
       <c r="R12" s="7">
-        <v>42134</v>
+        <v>42048</v>
       </c>
       <c r="S12" s="7">
-        <v>42162</v>
+        <v>42095</v>
       </c>
       <c r="T12" s="7">
-        <v>42172</v>
+        <v>42143</v>
       </c>
       <c r="U12" s="7">
-        <v>42200</v>
+        <v>42171</v>
       </c>
       <c r="V12" s="7">
-        <v>42620</v>
-      </c>
-      <c r="W12" s="7">
-        <v>42686</v>
-      </c>
+        <v>42205</v>
+      </c>
+      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12"/>
     </row>
     <row r="13" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>41598</v>
+        <v>41566</v>
       </c>
       <c r="D13" s="7">
-        <v>41623</v>
+        <v>41596</v>
       </c>
       <c r="E13" s="7">
+        <v>41626</v>
+      </c>
+      <c r="F13" s="7">
         <v>41667</v>
       </c>
-      <c r="F13" s="7">
-        <v>41696</v>
-      </c>
       <c r="G13" s="7">
-        <v>41728</v>
+        <v>41678</v>
       </c>
       <c r="H13" s="7">
-        <v>41756</v>
+        <v>41703</v>
       </c>
       <c r="I13" s="7">
-        <v>41783</v>
+        <v>41731</v>
       </c>
       <c r="J13" s="7">
-        <v>41812</v>
+        <v>41759</v>
       </c>
       <c r="K13" s="7">
-        <v>41840</v>
+        <v>41787</v>
       </c>
       <c r="L13" s="7">
-        <v>41867</v>
+        <v>41816</v>
       </c>
       <c r="M13" s="7">
-        <v>41896</v>
+        <v>41842</v>
       </c>
       <c r="N13" s="7">
-        <v>41930</v>
+        <v>41870</v>
       </c>
       <c r="O13" s="7">
-        <v>41981</v>
+        <v>41898</v>
       </c>
       <c r="P13" s="7">
-        <v>42009</v>
+        <v>41929</v>
       </c>
       <c r="Q13" s="7">
-        <v>42078</v>
+        <v>41957</v>
       </c>
       <c r="R13" s="7">
-        <v>42106</v>
+        <v>41986</v>
       </c>
       <c r="S13" s="7">
-        <v>42134</v>
+        <v>42048</v>
       </c>
       <c r="T13" s="7">
-        <v>42162</v>
+        <v>42095</v>
       </c>
       <c r="U13" s="7">
-        <v>42172</v>
+        <v>42143</v>
       </c>
       <c r="V13" s="7">
-        <v>42593</v>
+        <v>42171</v>
       </c>
       <c r="W13" s="7">
-        <v>42620</v>
-      </c>
-      <c r="X13" s="7"/>
+        <v>42590</v>
+      </c>
+      <c r="X13" s="7">
+        <v>42619</v>
+      </c>
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>41623</v>
+        <v>41596</v>
       </c>
       <c r="D14" s="7">
+        <v>41626</v>
+      </c>
+      <c r="E14" s="7">
         <v>41667</v>
       </c>
-      <c r="E14" s="7">
-        <v>41696</v>
-      </c>
       <c r="F14" s="7">
-        <v>41728</v>
+        <v>41678</v>
       </c>
       <c r="G14" s="7">
-        <v>41756</v>
+        <v>41703</v>
       </c>
       <c r="H14" s="7">
-        <v>41783</v>
+        <v>41731</v>
       </c>
       <c r="I14" s="7">
-        <v>41812</v>
+        <v>41759</v>
       </c>
       <c r="J14" s="7">
-        <v>41840</v>
+        <v>41787</v>
       </c>
       <c r="K14" s="7">
-        <v>41867</v>
+        <v>41816</v>
       </c>
       <c r="L14" s="7">
-        <v>41896</v>
+        <v>41842</v>
       </c>
       <c r="M14" s="7">
-        <v>41930</v>
+        <v>41870</v>
       </c>
       <c r="N14" s="7">
-        <v>41981</v>
+        <v>41898</v>
       </c>
       <c r="O14" s="7">
-        <v>42009</v>
+        <v>41929</v>
       </c>
       <c r="P14" s="7">
-        <v>42078</v>
+        <v>41957</v>
       </c>
       <c r="Q14" s="7">
-        <v>42106</v>
+        <v>41986</v>
       </c>
       <c r="R14" s="7">
-        <v>42134</v>
+        <v>42048</v>
       </c>
       <c r="S14" s="7">
-        <v>42162</v>
+        <v>42095</v>
       </c>
       <c r="T14" s="7">
-        <v>42172</v>
+        <v>42143</v>
       </c>
       <c r="U14" s="7">
-        <v>42200</v>
+        <v>42171</v>
       </c>
       <c r="V14" s="7">
-        <v>42620</v>
+        <v>42205</v>
       </c>
       <c r="W14" s="7">
-        <v>42686</v>
-      </c>
-      <c r="X14" s="7"/>
+        <v>42619</v>
+      </c>
+      <c r="X14" s="7">
+        <v>42687</v>
+      </c>
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>41574</v>
+        <v>41567</v>
       </c>
       <c r="D15" s="7">
-        <v>41598</v>
+        <v>41596</v>
       </c>
       <c r="E15" s="7">
-        <v>41657</v>
+        <v>41626</v>
       </c>
       <c r="F15" s="7">
-        <v>41686</v>
+        <v>41667</v>
       </c>
       <c r="G15" s="7">
-        <v>41718</v>
+        <v>41678</v>
       </c>
       <c r="H15" s="7">
-        <v>41745</v>
+        <v>41703</v>
       </c>
       <c r="I15" s="7">
-        <v>41783</v>
+        <v>41731</v>
       </c>
       <c r="J15" s="7">
-        <v>41812</v>
+        <v>41759</v>
       </c>
       <c r="K15" s="7">
-        <v>41840</v>
+        <v>41787</v>
       </c>
       <c r="L15" s="7">
-        <v>41867</v>
-      </c>
-      <c r="M15" s="7"/>
+        <v>41816</v>
+      </c>
+      <c r="M15" s="7">
+        <v>41842</v>
+      </c>
       <c r="N15" s="7">
-        <v>41896</v>
+        <v>41870</v>
       </c>
       <c r="O15" s="7">
-        <v>41930</v>
+        <v>41898</v>
       </c>
       <c r="P15" s="7">
-        <v>41981</v>
+        <v>41929</v>
       </c>
       <c r="Q15" s="7">
-        <v>42009</v>
+        <v>41957</v>
       </c>
       <c r="R15" s="7">
-        <v>42078</v>
+        <v>41986</v>
       </c>
       <c r="S15" s="7">
-        <v>42106</v>
+        <v>42048</v>
       </c>
       <c r="T15" s="7">
-        <v>42134</v>
+        <v>42095</v>
       </c>
       <c r="U15" s="7">
-        <v>42162</v>
+        <v>42143</v>
       </c>
       <c r="V15" s="7">
-        <v>42172</v>
-      </c>
-      <c r="W15" s="7">
-        <v>42592</v>
-      </c>
-      <c r="X15" s="7">
-        <v>42620</v>
-      </c>
+        <v>42171</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="7">
-        <v>41602</v>
+        <v>41596</v>
       </c>
       <c r="D16" s="7">
-        <v>41657</v>
+        <v>41626</v>
       </c>
       <c r="E16" s="7">
-        <v>41686</v>
+        <v>41667</v>
       </c>
       <c r="F16" s="7">
-        <v>41718</v>
+        <v>41678</v>
       </c>
       <c r="G16" s="7">
-        <v>41745</v>
+        <v>41703</v>
       </c>
       <c r="H16" s="7">
-        <v>41783</v>
+        <v>41731</v>
       </c>
       <c r="I16" s="7">
-        <v>41812</v>
+        <v>41759</v>
       </c>
       <c r="J16" s="7">
-        <v>41840</v>
+        <v>41787</v>
       </c>
       <c r="K16" s="7">
-        <v>41867</v>
+        <v>41816</v>
       </c>
       <c r="L16" s="7">
-        <v>41896</v>
-      </c>
-      <c r="M16" s="7"/>
+        <v>41842</v>
+      </c>
+      <c r="M16" s="7">
+        <v>41870</v>
+      </c>
       <c r="N16" s="7">
-        <v>41930</v>
+        <v>41898</v>
       </c>
       <c r="O16" s="7">
-        <v>41981</v>
+        <v>41929</v>
       </c>
       <c r="P16" s="7">
-        <v>42009</v>
+        <v>41957</v>
       </c>
       <c r="Q16" s="7">
-        <v>42078</v>
+        <v>41986</v>
       </c>
       <c r="R16" s="7">
-        <v>42106</v>
+        <v>42048</v>
       </c>
       <c r="S16" s="7">
-        <v>42134</v>
+        <v>42095</v>
       </c>
       <c r="T16" s="7">
-        <v>42162</v>
+        <v>42143</v>
       </c>
       <c r="U16" s="7">
-        <v>42172</v>
+        <v>42171</v>
       </c>
       <c r="V16" s="7">
-        <v>42200</v>
-      </c>
-      <c r="W16" s="7">
-        <v>42620</v>
-      </c>
-      <c r="X16" s="7">
-        <v>42686</v>
-      </c>
+        <v>42205</v>
+      </c>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>41597</v>
+        <v>41565</v>
       </c>
       <c r="D17" s="7">
-        <v>41686</v>
+        <v>41596</v>
       </c>
       <c r="E17" s="7">
-        <v>41718</v>
+        <v>41626</v>
       </c>
       <c r="F17" s="7">
-        <v>41745</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>41652</v>
+      </c>
+      <c r="G17" s="7">
+        <v>41677</v>
+      </c>
       <c r="H17" s="7">
-        <v>41783</v>
+        <v>41704</v>
       </c>
       <c r="I17" s="7">
-        <v>41812</v>
+        <v>41731</v>
       </c>
       <c r="J17" s="7">
+        <v>41759</v>
+      </c>
+      <c r="K17" s="7">
+        <v>41787</v>
+      </c>
+      <c r="L17" s="7">
+        <v>41816</v>
+      </c>
+      <c r="M17" s="7">
         <v>41840</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>41867</v>
-      </c>
-      <c r="M17" s="7"/>
       <c r="N17" s="7">
-        <v>41896</v>
+        <v>41870</v>
       </c>
       <c r="O17" s="7">
-        <v>41930</v>
+        <v>41898</v>
       </c>
       <c r="P17" s="7">
-        <v>41981</v>
+        <v>41929</v>
       </c>
       <c r="Q17" s="7">
-        <v>42009</v>
+        <v>41957</v>
       </c>
       <c r="R17" s="7">
-        <v>42078</v>
-      </c>
-      <c r="S17" s="7"/>
+        <v>41986</v>
+      </c>
+      <c r="S17" s="7">
+        <v>42048</v>
+      </c>
       <c r="T17" s="7">
-        <v>42106</v>
+        <v>42095</v>
       </c>
       <c r="U17" s="7">
-        <v>42134</v>
+        <v>42143</v>
       </c>
       <c r="V17" s="7">
-        <v>42162</v>
+        <v>42177</v>
       </c>
       <c r="W17" s="7">
-        <v>42172</v>
+        <v>42590</v>
       </c>
       <c r="X17" s="7">
-        <v>42592</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>42620</v>
-      </c>
+        <v>42619</v>
+      </c>
+      <c r="Y17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="7">
-        <v>41686</v>
+        <v>41596</v>
       </c>
       <c r="D18" s="7">
-        <v>41718</v>
+        <v>41626</v>
       </c>
       <c r="E18" s="7">
-        <v>41745</v>
+        <v>41652</v>
       </c>
       <c r="F18" s="7">
-        <v>41783</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>41677</v>
+      </c>
+      <c r="G18" s="7">
+        <v>41704</v>
+      </c>
       <c r="H18" s="7">
-        <v>41812</v>
+        <v>41731</v>
       </c>
       <c r="I18" s="7">
+        <v>41759</v>
+      </c>
+      <c r="J18" s="7">
+        <v>41787</v>
+      </c>
+      <c r="K18" s="7">
+        <v>41816</v>
+      </c>
+      <c r="L18" s="7">
         <v>41840</v>
       </c>
-      <c r="J18" s="7">
-        <v>41867</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>41896</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>41870</v>
+      </c>
       <c r="N18" s="7">
-        <v>41930</v>
+        <v>41898</v>
       </c>
       <c r="O18" s="7">
-        <v>41981</v>
+        <v>41929</v>
       </c>
       <c r="P18" s="7">
-        <v>42009</v>
+        <v>41957</v>
       </c>
       <c r="Q18" s="7">
-        <v>42078</v>
+        <v>41986</v>
       </c>
       <c r="R18" s="7">
-        <v>42106</v>
-      </c>
-      <c r="S18" s="7"/>
+        <v>42048</v>
+      </c>
+      <c r="S18" s="7">
+        <v>42095</v>
+      </c>
       <c r="T18" s="7">
-        <v>42134</v>
+        <v>42143</v>
       </c>
       <c r="U18" s="7">
-        <v>42162</v>
+        <v>42171</v>
       </c>
       <c r="V18" s="7">
-        <v>42172</v>
+        <v>42205</v>
       </c>
       <c r="W18" s="7">
-        <v>42200</v>
+        <v>42619</v>
       </c>
       <c r="X18" s="7">
-        <v>42620</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>42686</v>
-      </c>
+        <v>42687</v>
+      </c>
+      <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>41598</v>
+        <v>41570</v>
       </c>
       <c r="D19" s="7">
-        <v>41686</v>
+        <v>41596</v>
       </c>
       <c r="E19" s="7">
+        <v>41657</v>
+      </c>
+      <c r="F19" s="7">
+        <v>41687</v>
+      </c>
+      <c r="G19" s="7">
         <v>41718</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>41745</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <v>41783</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="J19" s="7">
+        <v>41812</v>
+      </c>
+      <c r="K19" s="7">
+        <v>41840</v>
+      </c>
+      <c r="L19" s="7">
+        <v>41867</v>
+      </c>
+      <c r="M19" s="7">
+        <v>41896</v>
+      </c>
+      <c r="N19" s="7">
+        <v>41930</v>
+      </c>
+      <c r="O19" s="7">
+        <v>41981</v>
+      </c>
+      <c r="P19" s="7">
+        <v>42009</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>42078</v>
+      </c>
+      <c r="R19" s="7">
+        <v>42106</v>
+      </c>
+      <c r="S19" s="7">
+        <v>42134</v>
+      </c>
+      <c r="T19" s="7">
+        <v>42162</v>
+      </c>
+      <c r="U19" s="7">
+        <v>42172</v>
+      </c>
+      <c r="V19" s="7">
+        <v>42592</v>
+      </c>
+      <c r="W19" s="7">
+        <v>42620</v>
+      </c>
       <c r="X19" s="7"/>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="7"/>
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>41686</v>
+        <v>41596</v>
       </c>
       <c r="D20" s="7">
+        <v>41657</v>
+      </c>
+      <c r="E20" s="7">
+        <v>41687</v>
+      </c>
+      <c r="F20" s="7">
         <v>41718</v>
       </c>
-      <c r="E20" s="7">
+      <c r="G20" s="7">
         <v>41745</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <v>41783</v>
       </c>
-      <c r="G20" s="7">
+      <c r="I20" s="7">
         <v>41812</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="J20" s="7">
+        <v>41840</v>
+      </c>
+      <c r="K20" s="7">
+        <v>41867</v>
+      </c>
+      <c r="L20" s="7">
+        <v>41896</v>
+      </c>
+      <c r="M20" s="7">
+        <v>41930</v>
+      </c>
+      <c r="N20" s="7">
+        <v>41981</v>
+      </c>
+      <c r="O20" s="7">
+        <v>42009</v>
+      </c>
+      <c r="P20" s="7">
+        <v>42078</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>42106</v>
+      </c>
+      <c r="R20" s="7">
+        <v>42134</v>
+      </c>
+      <c r="S20" s="7">
+        <v>42162</v>
+      </c>
+      <c r="T20" s="7">
+        <v>42172</v>
+      </c>
+      <c r="U20" s="7">
+        <v>42200</v>
+      </c>
+      <c r="V20" s="7">
+        <v>42620</v>
+      </c>
+      <c r="W20" s="7">
+        <v>42686</v>
+      </c>
       <c r="X20" s="7"/>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="7"/>
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>41565</v>
+        <v>41598</v>
       </c>
       <c r="D21" s="7">
-        <v>41596</v>
+        <v>41623</v>
       </c>
       <c r="E21" s="7">
-        <v>41654</v>
+        <v>41667</v>
       </c>
       <c r="F21" s="7">
-        <v>41686</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>41696</v>
+      </c>
+      <c r="G21" s="7">
+        <v>41728</v>
+      </c>
       <c r="H21" s="7">
-        <v>41717</v>
+        <v>41756</v>
       </c>
       <c r="I21" s="7">
-        <v>41745</v>
+        <v>41783</v>
       </c>
       <c r="J21" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="K21" s="7">
-        <v>41817</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+        <v>41840</v>
+      </c>
+      <c r="L21" s="7">
+        <v>41867</v>
+      </c>
+      <c r="M21" s="7">
+        <v>41896</v>
+      </c>
       <c r="N21" s="7">
-        <v>41840</v>
+        <v>41930</v>
       </c>
       <c r="O21" s="7">
-        <v>41867</v>
+        <v>41981</v>
       </c>
       <c r="P21" s="7">
-        <v>41896</v>
+        <v>42009</v>
       </c>
       <c r="Q21" s="7">
-        <v>41931</v>
+        <v>42078</v>
       </c>
       <c r="R21" s="7">
-        <v>41981</v>
+        <v>42106</v>
       </c>
       <c r="S21" s="7">
-        <v>42009</v>
+        <v>42134</v>
       </c>
       <c r="T21" s="7">
-        <v>42078</v>
+        <v>42162</v>
       </c>
       <c r="U21" s="7">
-        <v>42106</v>
+        <v>42172</v>
       </c>
       <c r="V21" s="7">
-        <v>42134</v>
+        <v>42593</v>
       </c>
       <c r="W21" s="7">
-        <v>42162</v>
-      </c>
-      <c r="X21" s="7">
-        <v>42172</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>42593</v>
-      </c>
-      <c r="Z21" s="7">
         <v>42620</v>
       </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="7">
-        <v>41596</v>
+        <v>41623</v>
       </c>
       <c r="D22" s="7">
-        <v>41654</v>
+        <v>41667</v>
       </c>
       <c r="E22" s="7">
-        <v>41687</v>
+        <v>41696</v>
       </c>
       <c r="F22" s="7">
-        <v>41717</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>41728</v>
+      </c>
+      <c r="G22" s="7">
+        <v>41756</v>
+      </c>
       <c r="H22" s="7">
-        <v>41745</v>
+        <v>41783</v>
       </c>
       <c r="I22" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="J22" s="7">
-        <v>41816</v>
+        <v>41840</v>
       </c>
       <c r="K22" s="7">
-        <v>41840</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+        <v>41867</v>
+      </c>
+      <c r="L22" s="7">
+        <v>41896</v>
+      </c>
+      <c r="M22" s="7">
+        <v>41930</v>
+      </c>
       <c r="N22" s="7">
-        <v>41868</v>
+        <v>41981</v>
       </c>
       <c r="O22" s="7">
-        <v>41896</v>
+        <v>42009</v>
       </c>
       <c r="P22" s="7">
-        <v>41931</v>
+        <v>42078</v>
       </c>
       <c r="Q22" s="7">
-        <v>41981</v>
+        <v>42106</v>
       </c>
       <c r="R22" s="7">
-        <v>42009</v>
+        <v>42134</v>
       </c>
       <c r="S22" s="7">
-        <v>42078</v>
+        <v>42162</v>
       </c>
       <c r="T22" s="7">
-        <v>42106</v>
+        <v>42172</v>
       </c>
       <c r="U22" s="7">
-        <v>42134</v>
+        <v>42200</v>
       </c>
       <c r="V22" s="7">
-        <v>42162</v>
+        <v>42620</v>
       </c>
       <c r="W22" s="7">
-        <v>42172</v>
-      </c>
-      <c r="X22" s="7">
-        <v>42200</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>42620</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>42687</v>
-      </c>
+        <v>42686</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>41599</v>
+        <v>41574</v>
       </c>
       <c r="D23" s="7">
-        <v>41623</v>
+        <v>41598</v>
       </c>
       <c r="E23" s="7">
-        <v>41667</v>
+        <v>41657</v>
       </c>
       <c r="F23" s="7">
-        <v>41687</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>41686</v>
+      </c>
+      <c r="G23" s="7">
+        <v>41718</v>
+      </c>
       <c r="H23" s="7">
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="I23" s="7">
-        <v>41745</v>
+        <v>41783</v>
       </c>
       <c r="J23" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="K23" s="7">
-        <v>41812</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
         <v>41840</v>
       </c>
+      <c r="L23" s="7">
+        <v>41867</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="7">
-        <v>41868</v>
+        <v>41896</v>
       </c>
       <c r="O23" s="7">
-        <v>41896</v>
+        <v>41930</v>
       </c>
       <c r="P23" s="7">
-        <v>41930</v>
+        <v>41981</v>
       </c>
       <c r="Q23" s="7">
-        <v>41981</v>
+        <v>42009</v>
       </c>
       <c r="R23" s="7">
-        <v>42009</v>
+        <v>42078</v>
       </c>
       <c r="S23" s="7">
-        <v>42078</v>
+        <v>42106</v>
       </c>
       <c r="T23" s="7">
-        <v>42106</v>
+        <v>42134</v>
       </c>
       <c r="U23" s="7">
-        <v>42134</v>
+        <v>42162</v>
       </c>
       <c r="V23" s="7">
-        <v>42162</v>
+        <v>42172</v>
       </c>
       <c r="W23" s="7">
-        <v>42172</v>
+        <v>42592</v>
       </c>
       <c r="X23" s="7">
-        <v>42593</v>
-      </c>
-      <c r="Y23" s="7">
         <v>42620</v>
       </c>
+      <c r="Y23" s="7"/>
     </row>
     <row r="24" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="7">
-        <v>41623</v>
+        <v>41602</v>
       </c>
       <c r="D24" s="7">
-        <v>41667</v>
+        <v>41657</v>
       </c>
       <c r="E24" s="7">
-        <v>41687</v>
+        <v>41686</v>
       </c>
       <c r="F24" s="7">
-        <v>41717</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>41718</v>
+      </c>
+      <c r="G24" s="7">
+        <v>41745</v>
+      </c>
       <c r="H24" s="7">
-        <v>41745</v>
+        <v>41783</v>
       </c>
       <c r="I24" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="J24" s="7">
-        <v>41812</v>
+        <v>41840</v>
       </c>
       <c r="K24" s="7">
-        <v>41840</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
-        <v>41868</v>
-      </c>
+        <v>41867</v>
+      </c>
+      <c r="L24" s="7">
+        <v>41896</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="7">
-        <v>41896</v>
+        <v>41930</v>
       </c>
       <c r="O24" s="7">
-        <v>41930</v>
+        <v>41981</v>
       </c>
       <c r="P24" s="7">
-        <v>41981</v>
+        <v>42009</v>
       </c>
       <c r="Q24" s="7">
-        <v>42009</v>
+        <v>42078</v>
       </c>
       <c r="R24" s="7">
-        <v>42078</v>
+        <v>42106</v>
       </c>
       <c r="S24" s="7">
-        <v>42106</v>
+        <v>42134</v>
       </c>
       <c r="T24" s="7">
-        <v>42134</v>
+        <v>42162</v>
       </c>
       <c r="U24" s="7">
-        <v>42162</v>
+        <v>42172</v>
       </c>
       <c r="V24" s="7">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="W24" s="7">
-        <v>42200</v>
+        <v>42620</v>
       </c>
       <c r="X24" s="7">
-        <v>42620</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>42690</v>
-      </c>
+        <v>42686</v>
+      </c>
+      <c r="Y24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>41566</v>
+        <v>41597</v>
       </c>
       <c r="D25" s="7">
-        <v>41596</v>
+        <v>41686</v>
       </c>
       <c r="E25" s="7">
-        <v>41654</v>
+        <v>41718</v>
       </c>
       <c r="F25" s="7">
-        <v>41696</v>
-      </c>
-      <c r="G25" s="7">
-        <v>41728</v>
-      </c>
+        <v>41745</v>
+      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <v>41756</v>
+        <v>41783</v>
       </c>
       <c r="I25" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="J25" s="7">
-        <v>41812</v>
-      </c>
-      <c r="K25" s="7">
         <v>41840</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
-        <v>41868</v>
-      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>41867</v>
+      </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7">
         <v>41896</v>
       </c>
       <c r="O25" s="7">
-        <v>41929</v>
-      </c>
-      <c r="P25" s="7"/>
+        <v>41930</v>
+      </c>
+      <c r="P25" s="7">
+        <v>41981</v>
+      </c>
       <c r="Q25" s="7">
-        <v>41981</v>
+        <v>42009</v>
       </c>
       <c r="R25" s="7">
-        <v>42009</v>
-      </c>
-      <c r="S25" s="7">
         <v>42078</v>
       </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7">
         <v>42106</v>
       </c>
@@ -2609,66 +2648,62 @@
         <v>42172</v>
       </c>
       <c r="X25" s="7">
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="Y25" s="7">
-        <v>42619</v>
+        <v>42620</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="7">
-        <v>41596</v>
+        <v>41686</v>
       </c>
       <c r="D26" s="7">
-        <v>41654</v>
+        <v>41718</v>
       </c>
       <c r="E26" s="7">
-        <v>41696</v>
+        <v>41745</v>
       </c>
       <c r="F26" s="7">
-        <v>41728</v>
-      </c>
-      <c r="G26" s="7">
-        <v>41756</v>
-      </c>
+        <v>41783</v>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7">
-        <v>41783</v>
+        <v>41812</v>
       </c>
       <c r="I26" s="7">
-        <v>41812</v>
+        <v>41840</v>
       </c>
       <c r="J26" s="7">
-        <v>41840</v>
-      </c>
-      <c r="K26" s="7">
-        <v>41868</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7">
+        <v>41867</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
         <v>41896</v>
       </c>
+      <c r="M26" s="7"/>
       <c r="N26" s="7">
-        <v>41929</v>
+        <v>41930</v>
       </c>
       <c r="O26" s="7">
         <v>41981</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="7">
+        <v>42009</v>
+      </c>
       <c r="Q26" s="7">
-        <v>42009</v>
+        <v>42078</v>
       </c>
       <c r="R26" s="7">
-        <v>42078</v>
-      </c>
-      <c r="S26" s="7">
         <v>42106</v>
       </c>
+      <c r="S26" s="7"/>
       <c r="T26" s="7">
         <v>42134</v>
       </c>
@@ -2682,358 +2717,312 @@
         <v>42200</v>
       </c>
       <c r="X26" s="7">
-        <v>42619</v>
+        <v>42620</v>
       </c>
       <c r="Y26" s="7">
-        <v>42687</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="7">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="D27" s="7">
-        <v>41623</v>
+        <v>41686</v>
       </c>
       <c r="E27" s="7">
-        <v>41667</v>
+        <v>41718</v>
       </c>
       <c r="F27" s="7">
-        <v>41696</v>
+        <v>41745</v>
       </c>
       <c r="G27" s="7">
-        <v>41728</v>
-      </c>
-      <c r="H27" s="7">
-        <v>41756</v>
-      </c>
-      <c r="I27" s="7">
         <v>41783</v>
       </c>
-      <c r="J27" s="7">
-        <v>41812</v>
-      </c>
-      <c r="K27" s="7">
-        <v>41840</v>
-      </c>
-      <c r="L27" s="7">
-        <v>41868</v>
-      </c>
-      <c r="M27" s="7">
-        <v>41896</v>
-      </c>
-      <c r="N27" s="7">
-        <v>41929</v>
-      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="7">
-        <v>41981</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>42009</v>
-      </c>
-      <c r="R27" s="7">
-        <v>42078</v>
-      </c>
-      <c r="S27" s="7">
-        <v>42106</v>
-      </c>
-      <c r="T27" s="7">
-        <v>42134</v>
-      </c>
-      <c r="U27" s="7">
-        <v>42162</v>
-      </c>
-      <c r="V27" s="7">
-        <v>42172</v>
-      </c>
-      <c r="W27" s="7">
-        <v>42591</v>
-      </c>
-      <c r="X27" s="7">
-        <v>42619</v>
-      </c>
-      <c r="Y27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27"/>
     </row>
     <row r="28" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="7">
-        <v>41623</v>
+        <v>41686</v>
       </c>
       <c r="D28" s="7">
-        <v>41667</v>
+        <v>41718</v>
       </c>
       <c r="E28" s="7">
-        <v>41696</v>
+        <v>41745</v>
       </c>
       <c r="F28" s="7">
-        <v>41728</v>
+        <v>41783</v>
       </c>
       <c r="G28" s="7">
-        <v>41756</v>
-      </c>
-      <c r="H28" s="7">
-        <v>41783</v>
-      </c>
-      <c r="I28" s="7">
         <v>41812</v>
       </c>
-      <c r="J28" s="7">
-        <v>41840</v>
-      </c>
-      <c r="K28" s="7">
-        <v>41868</v>
-      </c>
-      <c r="L28" s="7">
-        <v>41896</v>
-      </c>
-      <c r="M28" s="7">
-        <v>41929</v>
-      </c>
-      <c r="N28" s="7">
-        <v>41981</v>
-      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7">
-        <v>42009</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>42078</v>
-      </c>
-      <c r="R28" s="7">
-        <v>42106</v>
-      </c>
-      <c r="S28" s="7">
-        <v>42134</v>
-      </c>
-      <c r="T28" s="7">
-        <v>42162</v>
-      </c>
-      <c r="U28" s="7">
-        <v>42172</v>
-      </c>
-      <c r="V28" s="7">
-        <v>42200</v>
-      </c>
-      <c r="W28" s="7">
-        <v>42619</v>
-      </c>
-      <c r="X28" s="7">
-        <v>42687</v>
-      </c>
-      <c r="Y28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28"/>
     </row>
     <row r="29" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>41612</v>
+        <v>41565</v>
       </c>
       <c r="D29" s="7">
-        <v>41638</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>41596</v>
+      </c>
+      <c r="E29" s="7">
+        <v>41654</v>
+      </c>
       <c r="F29" s="7">
         <v>41686</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
         <v>41717</v>
       </c>
-      <c r="H29" s="7">
-        <v>41795</v>
-      </c>
       <c r="I29" s="7">
-        <v>41812</v>
+        <v>41745</v>
       </c>
       <c r="J29" s="7">
+        <v>41783</v>
+      </c>
+      <c r="K29" s="7">
+        <v>41817</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
         <v>41840</v>
       </c>
-      <c r="K29" s="7">
-        <v>41852</v>
-      </c>
-      <c r="L29" s="7">
-        <v>41881</v>
-      </c>
-      <c r="M29" s="7">
-        <v>41911</v>
-      </c>
-      <c r="N29" s="7">
-        <v>41941</v>
-      </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7">
+        <v>41867</v>
+      </c>
       <c r="P29" s="7">
-        <v>41993</v>
-      </c>
-      <c r="Q29" s="7"/>
+        <v>41896</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>41931</v>
+      </c>
       <c r="R29" s="7">
-        <v>42022</v>
+        <v>41981</v>
       </c>
       <c r="S29" s="7">
-        <v>42085</v>
+        <v>42009</v>
       </c>
       <c r="T29" s="7">
-        <v>42113</v>
+        <v>42078</v>
       </c>
       <c r="U29" s="7">
-        <v>42146</v>
-      </c>
-      <c r="V29" s="7"/>
+        <v>42106</v>
+      </c>
+      <c r="V29" s="7">
+        <v>42134</v>
+      </c>
       <c r="W29" s="7">
-        <v>42175</v>
+        <v>42162</v>
       </c>
       <c r="X29" s="7">
-        <v>42594</v>
+        <v>42172</v>
       </c>
       <c r="Y29" s="7">
+        <v>42593</v>
+      </c>
+      <c r="Z29" s="7">
         <v>42620</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="7">
-        <v>41638</v>
+        <v>41596</v>
       </c>
       <c r="D30" s="7">
-        <v>41686</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>41654</v>
+      </c>
+      <c r="E30" s="7">
+        <v>41687</v>
+      </c>
       <c r="F30" s="7">
         <v>41717</v>
       </c>
-      <c r="G30" s="7">
-        <v>41795</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="7">
-        <v>41823</v>
+        <v>41745</v>
       </c>
       <c r="I30" s="7">
+        <v>41783</v>
+      </c>
+      <c r="J30" s="7">
+        <v>41816</v>
+      </c>
+      <c r="K30" s="7">
         <v>41840</v>
       </c>
-      <c r="J30" s="7">
-        <v>41852</v>
-      </c>
-      <c r="K30" s="7">
-        <v>41881</v>
-      </c>
-      <c r="L30" s="7">
-        <v>41912</v>
-      </c>
-      <c r="M30" s="7">
-        <v>41941</v>
-      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="7">
-        <v>41993</v>
-      </c>
-      <c r="O30" s="7"/>
+        <v>41868</v>
+      </c>
+      <c r="O30" s="7">
+        <v>41896</v>
+      </c>
       <c r="P30" s="7">
-        <v>42022</v>
-      </c>
-      <c r="Q30" s="7"/>
+        <v>41931</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>41981</v>
+      </c>
       <c r="R30" s="7">
-        <v>42085</v>
+        <v>42009</v>
       </c>
       <c r="S30" s="7">
-        <v>42113</v>
+        <v>42078</v>
       </c>
       <c r="T30" s="7">
-        <v>42146</v>
+        <v>42106</v>
       </c>
       <c r="U30" s="7">
-        <v>42175</v>
-      </c>
-      <c r="V30" s="7"/>
+        <v>42134</v>
+      </c>
+      <c r="V30" s="7">
+        <v>42162</v>
+      </c>
       <c r="W30" s="7">
-        <v>42203</v>
+        <v>42172</v>
       </c>
       <c r="X30" s="7">
+        <v>42200</v>
+      </c>
+      <c r="Y30" s="7">
         <v>42620</v>
       </c>
-      <c r="Y30" s="7">
-        <v>42686</v>
+      <c r="Z30" s="7">
+        <v>42687</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>41613</v>
+        <v>41599</v>
       </c>
       <c r="D31" s="7">
-        <v>41686</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>41623</v>
+      </c>
+      <c r="E31" s="7">
+        <v>41667</v>
+      </c>
       <c r="F31" s="7">
-        <v>41718</v>
-      </c>
-      <c r="G31" s="7">
-        <v>41795</v>
-      </c>
+        <v>41687</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7">
+        <v>41717</v>
+      </c>
+      <c r="I31" s="7">
+        <v>41745</v>
+      </c>
+      <c r="J31" s="7">
+        <v>41783</v>
+      </c>
+      <c r="K31" s="7">
         <v>41812</v>
-      </c>
-      <c r="I31" s="7">
-        <v>41840</v>
-      </c>
-      <c r="J31" s="7">
-        <v>41852</v>
-      </c>
-      <c r="K31" s="7">
-        <v>41881</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7">
-        <v>41911</v>
+        <v>41840</v>
       </c>
       <c r="N31" s="7">
-        <v>41941</v>
-      </c>
-      <c r="O31" s="7"/>
+        <v>41868</v>
+      </c>
+      <c r="O31" s="7">
+        <v>41896</v>
+      </c>
       <c r="P31" s="7">
-        <v>41993</v>
-      </c>
-      <c r="Q31" s="7"/>
+        <v>41930</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>41981</v>
+      </c>
       <c r="R31" s="7">
-        <v>42022</v>
+        <v>42009</v>
       </c>
       <c r="S31" s="7">
-        <v>42085</v>
+        <v>42078</v>
       </c>
       <c r="T31" s="7">
-        <v>42113</v>
+        <v>42106</v>
       </c>
       <c r="U31" s="7">
-        <v>42146</v>
-      </c>
-      <c r="V31" s="7"/>
+        <v>42134</v>
+      </c>
+      <c r="V31" s="7">
+        <v>42162</v>
+      </c>
       <c r="W31" s="7">
-        <v>42175</v>
+        <v>42172</v>
       </c>
       <c r="X31" s="7">
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="Y31" s="7">
         <v>42620</v>
@@ -3041,338 +3030,372 @@
     </row>
     <row r="32" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="7">
-        <v>41686</v>
+        <v>41623</v>
       </c>
       <c r="D32" s="7">
-        <v>41718</v>
-      </c>
-      <c r="E32" s="7"/>
+        <v>41667</v>
+      </c>
+      <c r="E32" s="7">
+        <v>41687</v>
+      </c>
       <c r="F32" s="7">
-        <v>41795</v>
-      </c>
-      <c r="G32" s="7">
-        <v>41823</v>
-      </c>
+        <v>41717</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7">
+        <v>41745</v>
+      </c>
+      <c r="I32" s="7">
+        <v>41783</v>
+      </c>
+      <c r="J32" s="7">
+        <v>41812</v>
+      </c>
+      <c r="K32" s="7">
         <v>41840</v>
-      </c>
-      <c r="I32" s="7">
-        <v>41852</v>
-      </c>
-      <c r="J32" s="7">
-        <v>41881</v>
-      </c>
-      <c r="K32" s="7">
-        <v>41910</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7">
-        <v>41941</v>
+        <v>41868</v>
       </c>
       <c r="N32" s="7">
-        <v>41993</v>
-      </c>
-      <c r="O32" s="7"/>
+        <v>41896</v>
+      </c>
+      <c r="O32" s="7">
+        <v>41930</v>
+      </c>
       <c r="P32" s="7">
-        <v>42022</v>
-      </c>
-      <c r="Q32" s="7"/>
+        <v>41981</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>42009</v>
+      </c>
       <c r="R32" s="7">
-        <v>42085</v>
+        <v>42078</v>
       </c>
       <c r="S32" s="7">
-        <v>42113</v>
+        <v>42106</v>
       </c>
       <c r="T32" s="7">
-        <v>42146</v>
+        <v>42134</v>
       </c>
       <c r="U32" s="7">
-        <v>42175</v>
-      </c>
-      <c r="V32" s="7"/>
+        <v>42162</v>
+      </c>
+      <c r="V32" s="7">
+        <v>42172</v>
+      </c>
       <c r="W32" s="7">
-        <v>42203</v>
+        <v>42200</v>
       </c>
       <c r="X32" s="7">
         <v>42620</v>
       </c>
       <c r="Y32" s="7">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>41611</v>
+        <v>41566</v>
       </c>
       <c r="D33" s="7">
-        <v>41638</v>
+        <v>41596</v>
       </c>
       <c r="E33" s="7">
-        <v>41686</v>
+        <v>41654</v>
       </c>
       <c r="F33" s="7">
-        <v>41717</v>
+        <v>41696</v>
       </c>
       <c r="G33" s="7">
-        <v>41795</v>
+        <v>41728</v>
       </c>
       <c r="H33" s="7">
-        <v>41823</v>
-      </c>
-      <c r="I33" s="7"/>
+        <v>41756</v>
+      </c>
+      <c r="I33" s="7">
+        <v>41783</v>
+      </c>
       <c r="J33" s="7">
-        <v>41852</v>
+        <v>41812</v>
       </c>
       <c r="K33" s="7">
-        <v>41881</v>
-      </c>
-      <c r="L33" s="7">
-        <v>41911</v>
-      </c>
+        <v>41840</v>
+      </c>
+      <c r="L33" s="7"/>
       <c r="M33" s="7">
-        <v>41941</v>
+        <v>41868</v>
       </c>
       <c r="N33" s="7">
-        <v>41993</v>
+        <v>41896</v>
       </c>
       <c r="O33" s="7">
-        <v>42022</v>
-      </c>
-      <c r="P33" s="7">
-        <v>42085</v>
-      </c>
+        <v>41929</v>
+      </c>
+      <c r="P33" s="7"/>
       <c r="Q33" s="7">
-        <v>42113</v>
+        <v>41981</v>
       </c>
       <c r="R33" s="7">
-        <v>42146</v>
+        <v>42009</v>
       </c>
       <c r="S33" s="7">
-        <v>42175</v>
+        <v>42078</v>
       </c>
       <c r="T33" s="7">
-        <v>42594</v>
+        <v>42106</v>
       </c>
       <c r="U33" s="7">
-        <v>42620</v>
-      </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42134</v>
+      </c>
+      <c r="V33" s="7">
+        <v>42162</v>
+      </c>
+      <c r="W33" s="7">
+        <v>42172</v>
+      </c>
+      <c r="X33" s="7">
+        <v>42591</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="7">
-        <v>41638</v>
+        <v>41596</v>
       </c>
       <c r="D34" s="7">
-        <v>41686</v>
+        <v>41654</v>
       </c>
       <c r="E34" s="7">
-        <v>41717</v>
+        <v>41696</v>
       </c>
       <c r="F34" s="7">
-        <v>41795</v>
+        <v>41728</v>
       </c>
       <c r="G34" s="7">
-        <v>41823</v>
+        <v>41756</v>
       </c>
       <c r="H34" s="7">
-        <v>41852</v>
-      </c>
-      <c r="I34" s="7"/>
+        <v>41783</v>
+      </c>
+      <c r="I34" s="7">
+        <v>41812</v>
+      </c>
       <c r="J34" s="7">
-        <v>41881</v>
+        <v>41840</v>
       </c>
       <c r="K34" s="7">
-        <v>41911</v>
-      </c>
-      <c r="L34" s="7">
-        <v>41941</v>
-      </c>
+        <v>41868</v>
+      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="7">
-        <v>41993</v>
+        <v>41896</v>
       </c>
       <c r="N34" s="7">
-        <v>42022</v>
+        <v>41929</v>
       </c>
       <c r="O34" s="7">
-        <v>42085</v>
-      </c>
-      <c r="P34" s="7">
-        <v>42113</v>
-      </c>
+        <v>41981</v>
+      </c>
+      <c r="P34" s="7"/>
       <c r="Q34" s="7">
-        <v>42146</v>
+        <v>42009</v>
       </c>
       <c r="R34" s="7">
-        <v>42175</v>
+        <v>42078</v>
       </c>
       <c r="S34" s="7">
-        <v>42203</v>
+        <v>42106</v>
       </c>
       <c r="T34" s="7">
-        <v>42620</v>
+        <v>42134</v>
       </c>
       <c r="U34" s="7">
+        <v>42162</v>
+      </c>
+      <c r="V34" s="7">
+        <v>42172</v>
+      </c>
+      <c r="W34" s="7">
+        <v>42200</v>
+      </c>
+      <c r="X34" s="7">
+        <v>42619</v>
+      </c>
+      <c r="Y34" s="7">
         <v>42687</v>
       </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>41612</v>
+        <v>41599</v>
       </c>
       <c r="D35" s="7">
-        <v>41687</v>
+        <v>41623</v>
       </c>
       <c r="E35" s="7">
-        <v>41717</v>
+        <v>41667</v>
       </c>
       <c r="F35" s="7">
-        <v>41795</v>
+        <v>41696</v>
       </c>
       <c r="G35" s="7">
-        <v>41823</v>
+        <v>41728</v>
       </c>
       <c r="H35" s="7">
-        <v>41852</v>
+        <v>41756</v>
       </c>
       <c r="I35" s="7">
-        <v>41881</v>
+        <v>41783</v>
       </c>
       <c r="J35" s="7">
-        <v>41911</v>
+        <v>41812</v>
       </c>
       <c r="K35" s="7">
-        <v>41941</v>
+        <v>41840</v>
       </c>
       <c r="L35" s="7">
-        <v>41993</v>
+        <v>41868</v>
       </c>
       <c r="M35" s="7">
-        <v>42022</v>
+        <v>41896</v>
       </c>
       <c r="N35" s="7">
-        <v>42085</v>
-      </c>
-      <c r="O35" s="7">
-        <v>42113</v>
-      </c>
+        <v>41929</v>
+      </c>
+      <c r="O35" s="7"/>
       <c r="P35" s="7">
-        <v>42146</v>
+        <v>41981</v>
       </c>
       <c r="Q35" s="7">
-        <v>42175</v>
+        <v>42009</v>
       </c>
       <c r="R35" s="7">
-        <v>42593</v>
+        <v>42078</v>
       </c>
       <c r="S35" s="7">
-        <v>42620</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
+        <v>42106</v>
+      </c>
+      <c r="T35" s="7">
+        <v>42134</v>
+      </c>
+      <c r="U35" s="7">
+        <v>42162</v>
+      </c>
+      <c r="V35" s="7">
+        <v>42172</v>
+      </c>
+      <c r="W35" s="7">
+        <v>42591</v>
+      </c>
+      <c r="X35" s="7">
+        <v>42619</v>
+      </c>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="7">
-        <v>41687</v>
+        <v>41623</v>
       </c>
       <c r="D36" s="7">
-        <v>41717</v>
+        <v>41667</v>
       </c>
       <c r="E36" s="7">
-        <v>41795</v>
+        <v>41696</v>
       </c>
       <c r="F36" s="7">
-        <v>41823</v>
+        <v>41728</v>
       </c>
       <c r="G36" s="7">
-        <v>41852</v>
+        <v>41756</v>
       </c>
       <c r="H36" s="7">
-        <v>41881</v>
+        <v>41783</v>
       </c>
       <c r="I36" s="7">
-        <v>41910</v>
+        <v>41812</v>
       </c>
       <c r="J36" s="7">
-        <v>41941</v>
+        <v>41840</v>
       </c>
       <c r="K36" s="7">
-        <v>41993</v>
+        <v>41868</v>
       </c>
       <c r="L36" s="7">
-        <v>42022</v>
+        <v>41896</v>
       </c>
       <c r="M36" s="7">
-        <v>42085</v>
+        <v>41929</v>
       </c>
       <c r="N36" s="7">
-        <v>42113</v>
-      </c>
-      <c r="O36" s="7">
-        <v>42146</v>
-      </c>
+        <v>41981</v>
+      </c>
+      <c r="O36" s="7"/>
       <c r="P36" s="7">
-        <v>42175</v>
+        <v>42009</v>
       </c>
       <c r="Q36" s="7">
-        <v>42203</v>
+        <v>42078</v>
       </c>
       <c r="R36" s="7">
-        <v>42620</v>
+        <v>42106</v>
       </c>
       <c r="S36" s="7">
-        <v>42686</v>
-      </c>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
+        <v>42134</v>
+      </c>
+      <c r="T36" s="7">
+        <v>42162</v>
+      </c>
+      <c r="U36" s="7">
+        <v>42172</v>
+      </c>
+      <c r="V36" s="7">
+        <v>42200</v>
+      </c>
+      <c r="W36" s="7">
+        <v>42619</v>
+      </c>
+      <c r="X36" s="7">
+        <v>42687</v>
+      </c>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>18</v>
@@ -3381,415 +3404,1121 @@
         <v>41612</v>
       </c>
       <c r="D37" s="7">
-        <v>41687</v>
-      </c>
-      <c r="E37" s="7">
+        <v>41638</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7">
+        <v>41686</v>
+      </c>
+      <c r="G37" s="7">
         <v>41717</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <v>41795</v>
       </c>
-      <c r="G37" s="7">
-        <v>41823</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="I37" s="7">
+        <v>41812</v>
+      </c>
+      <c r="J37" s="7">
+        <v>41840</v>
+      </c>
+      <c r="K37" s="7">
         <v>41852</v>
       </c>
-      <c r="I37" s="7">
+      <c r="L37" s="7">
         <v>41881</v>
       </c>
-      <c r="J37" s="7">
+      <c r="M37" s="7">
         <v>41911</v>
       </c>
-      <c r="K37" s="7">
+      <c r="N37" s="7">
         <v>41941</v>
       </c>
-      <c r="L37" s="7">
+      <c r="O37" s="7"/>
+      <c r="P37" s="7">
         <v>41993</v>
       </c>
-      <c r="M37" s="7">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
         <v>42022</v>
       </c>
-      <c r="N37" s="7">
+      <c r="S37" s="7">
         <v>42085</v>
       </c>
-      <c r="O37" s="7">
+      <c r="T37" s="7">
         <v>42113</v>
       </c>
-      <c r="P37" s="7">
+      <c r="U37" s="7">
         <v>42146</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="V37" s="7"/>
+      <c r="W37" s="7">
         <v>42175</v>
       </c>
-      <c r="R37" s="7">
-        <v>42593</v>
-      </c>
-      <c r="S37" s="7">
+      <c r="X37" s="7">
+        <v>42594</v>
+      </c>
+      <c r="Y37" s="7">
         <v>42620</v>
       </c>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="7">
+        <v>41638</v>
+      </c>
+      <c r="D38" s="7">
+        <v>41686</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
+        <v>41717</v>
+      </c>
+      <c r="G38" s="7">
+        <v>41795</v>
+      </c>
+      <c r="H38" s="7">
+        <v>41823</v>
+      </c>
+      <c r="I38" s="7">
+        <v>41840</v>
+      </c>
+      <c r="J38" s="7">
+        <v>41852</v>
+      </c>
+      <c r="K38" s="7">
+        <v>41881</v>
+      </c>
+      <c r="L38" s="7">
+        <v>41912</v>
+      </c>
+      <c r="M38" s="7">
+        <v>41941</v>
+      </c>
+      <c r="N38" s="7">
+        <v>41993</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7">
+        <v>42022</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7">
+        <v>42085</v>
+      </c>
+      <c r="S38" s="7">
+        <v>42113</v>
+      </c>
+      <c r="T38" s="7">
+        <v>42146</v>
+      </c>
+      <c r="U38" s="7">
+        <v>42175</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7">
+        <v>42203</v>
+      </c>
+      <c r="X38" s="7">
+        <v>42620</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7">
+        <v>41613</v>
+      </c>
+      <c r="D39" s="7">
+        <v>41686</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <v>41718</v>
+      </c>
+      <c r="G39" s="7">
+        <v>41795</v>
+      </c>
+      <c r="H39" s="7">
+        <v>41812</v>
+      </c>
+      <c r="I39" s="7">
+        <v>41840</v>
+      </c>
+      <c r="J39" s="7">
+        <v>41852</v>
+      </c>
+      <c r="K39" s="7">
+        <v>41881</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7">
+        <v>41911</v>
+      </c>
+      <c r="N39" s="7">
+        <v>41941</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7">
+        <v>41993</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>42022</v>
+      </c>
+      <c r="S39" s="7">
+        <v>42085</v>
+      </c>
+      <c r="T39" s="7">
+        <v>42113</v>
+      </c>
+      <c r="U39" s="7">
+        <v>42146</v>
+      </c>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7">
+        <v>42175</v>
+      </c>
+      <c r="X39" s="7">
+        <v>42592</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
+        <v>41686</v>
+      </c>
+      <c r="D40" s="7">
+        <v>41718</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G40" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H40" s="7">
+        <v>41840</v>
+      </c>
+      <c r="I40" s="7">
+        <v>41852</v>
+      </c>
+      <c r="J40" s="7">
+        <v>41881</v>
+      </c>
+      <c r="K40" s="7">
+        <v>41910</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
+        <v>41941</v>
+      </c>
+      <c r="N40" s="7">
+        <v>41993</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7">
+        <v>42022</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7">
+        <v>42085</v>
+      </c>
+      <c r="S40" s="7">
+        <v>42113</v>
+      </c>
+      <c r="T40" s="7">
+        <v>42146</v>
+      </c>
+      <c r="U40" s="7">
+        <v>42175</v>
+      </c>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7">
+        <v>42203</v>
+      </c>
+      <c r="X40" s="7">
+        <v>42620</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="7">
+        <v>41611</v>
+      </c>
+      <c r="D41" s="7">
+        <v>41638</v>
+      </c>
+      <c r="E41" s="7">
+        <v>41686</v>
+      </c>
+      <c r="F41" s="7">
+        <v>41717</v>
+      </c>
+      <c r="G41" s="7">
+        <v>41795</v>
+      </c>
+      <c r="H41" s="7">
+        <v>41823</v>
+      </c>
+      <c r="I41" s="7">
+        <v>41852</v>
+      </c>
+      <c r="J41" s="7">
+        <v>41881</v>
+      </c>
+      <c r="K41" s="7">
+        <v>41911</v>
+      </c>
+      <c r="L41" s="7">
+        <v>41941</v>
+      </c>
+      <c r="M41" s="7">
+        <v>41993</v>
+      </c>
+      <c r="N41" s="7">
+        <v>42022</v>
+      </c>
+      <c r="O41" s="7">
+        <v>42085</v>
+      </c>
+      <c r="P41" s="7">
+        <v>42113</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>42146</v>
+      </c>
+      <c r="R41" s="7">
+        <v>42175</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="7">
+        <v>41638</v>
+      </c>
+      <c r="D42" s="7">
+        <v>41686</v>
+      </c>
+      <c r="E42" s="7">
+        <v>41717</v>
+      </c>
+      <c r="F42" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G42" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H42" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I42" s="7">
+        <v>41881</v>
+      </c>
+      <c r="J42" s="7">
+        <v>41911</v>
+      </c>
+      <c r="K42" s="7">
+        <v>41941</v>
+      </c>
+      <c r="L42" s="7">
+        <v>41993</v>
+      </c>
+      <c r="M42" s="7">
+        <v>42022</v>
+      </c>
+      <c r="N42" s="7">
+        <v>42085</v>
+      </c>
+      <c r="O42" s="7">
+        <v>42113</v>
+      </c>
+      <c r="P42" s="7">
+        <v>42146</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>42175</v>
+      </c>
+      <c r="R42" s="7">
+        <v>42203</v>
+      </c>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7">
+        <v>41611</v>
+      </c>
+      <c r="D43" s="7">
+        <v>41638</v>
+      </c>
+      <c r="E43" s="7">
+        <v>41686</v>
+      </c>
+      <c r="F43" s="7">
+        <v>41717</v>
+      </c>
+      <c r="G43" s="7">
+        <v>41795</v>
+      </c>
+      <c r="H43" s="7">
+        <v>41823</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7">
+        <v>41852</v>
+      </c>
+      <c r="K43" s="7">
+        <v>41881</v>
+      </c>
+      <c r="L43" s="7">
+        <v>41911</v>
+      </c>
+      <c r="M43" s="7">
+        <v>41941</v>
+      </c>
+      <c r="N43" s="7">
+        <v>41993</v>
+      </c>
+      <c r="O43" s="7">
+        <v>42022</v>
+      </c>
+      <c r="P43" s="7">
+        <v>42085</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>42113</v>
+      </c>
+      <c r="R43" s="7">
+        <v>42146</v>
+      </c>
+      <c r="S43" s="7">
+        <v>42175</v>
+      </c>
+      <c r="T43" s="7">
+        <v>42594</v>
+      </c>
+      <c r="U43" s="7">
+        <v>42620</v>
+      </c>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+    </row>
+    <row r="44" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7">
+        <v>41638</v>
+      </c>
+      <c r="D44" s="7">
+        <v>41686</v>
+      </c>
+      <c r="E44" s="7">
+        <v>41717</v>
+      </c>
+      <c r="F44" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G44" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H44" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7">
+        <v>41881</v>
+      </c>
+      <c r="K44" s="7">
+        <v>41911</v>
+      </c>
+      <c r="L44" s="7">
+        <v>41941</v>
+      </c>
+      <c r="M44" s="7">
+        <v>41993</v>
+      </c>
+      <c r="N44" s="7">
+        <v>42022</v>
+      </c>
+      <c r="O44" s="7">
+        <v>42085</v>
+      </c>
+      <c r="P44" s="7">
+        <v>42113</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>42146</v>
+      </c>
+      <c r="R44" s="7">
+        <v>42175</v>
+      </c>
+      <c r="S44" s="7">
+        <v>42203</v>
+      </c>
+      <c r="T44" s="7">
+        <v>42620</v>
+      </c>
+      <c r="U44" s="7">
+        <v>42687</v>
+      </c>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+    </row>
+    <row r="45" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="7">
+        <v>41611</v>
+      </c>
+      <c r="D45" s="7">
+        <v>41638</v>
+      </c>
+      <c r="E45" s="7">
+        <v>41686</v>
+      </c>
+      <c r="F45" s="7">
+        <v>41717</v>
+      </c>
+      <c r="G45" s="7">
+        <v>41795</v>
+      </c>
+      <c r="H45" s="7">
+        <v>41823</v>
+      </c>
+      <c r="I45" s="7">
+        <v>41852</v>
+      </c>
+      <c r="J45" s="7">
+        <v>41881</v>
+      </c>
+      <c r="K45" s="7">
+        <v>41911</v>
+      </c>
+      <c r="L45" s="7">
+        <v>41941</v>
+      </c>
+      <c r="M45" s="7">
+        <v>41993</v>
+      </c>
+      <c r="N45" s="7">
+        <v>42022</v>
+      </c>
+      <c r="O45" s="7">
+        <v>42085</v>
+      </c>
+      <c r="P45" s="7">
+        <v>42113</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>42146</v>
+      </c>
+      <c r="R45" s="7">
+        <v>42175</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7">
+        <v>41638</v>
+      </c>
+      <c r="D46" s="7">
+        <v>41686</v>
+      </c>
+      <c r="E46" s="7">
+        <v>41717</v>
+      </c>
+      <c r="F46" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G46" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H46" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I46" s="7">
+        <v>41881</v>
+      </c>
+      <c r="J46" s="7">
+        <v>41911</v>
+      </c>
+      <c r="K46" s="7">
+        <v>41941</v>
+      </c>
+      <c r="L46" s="7">
+        <v>41993</v>
+      </c>
+      <c r="M46" s="7">
+        <v>42022</v>
+      </c>
+      <c r="N46" s="7">
+        <v>42085</v>
+      </c>
+      <c r="O46" s="7">
+        <v>42113</v>
+      </c>
+      <c r="P46" s="7">
+        <v>42146</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>42175</v>
+      </c>
+      <c r="R46" s="7">
+        <v>42203</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>41613</v>
+      </c>
+      <c r="D47" s="7">
         <v>41687</v>
       </c>
-      <c r="D38" s="7">
+      <c r="E47" s="7">
         <v>41717</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
         <v>41795</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H47" s="7">
         <v>41823</v>
       </c>
-      <c r="G38" s="7">
+      <c r="I47" s="7">
         <v>41852</v>
       </c>
-      <c r="H38" s="7">
+      <c r="J47" s="7">
         <v>41881</v>
       </c>
-      <c r="I38" s="7">
+      <c r="K47" s="7">
         <v>41910</v>
       </c>
-      <c r="J38" s="7">
+      <c r="L47" s="7">
         <v>41941</v>
       </c>
-      <c r="K38" s="7">
+      <c r="M47" s="7">
         <v>41993</v>
       </c>
-      <c r="L38" s="7">
+      <c r="N47" s="7">
         <v>42022</v>
       </c>
-      <c r="M38" s="7">
+      <c r="O47" s="7">
         <v>42085</v>
       </c>
-      <c r="N38" s="7">
+      <c r="P47" s="7">
         <v>42113</v>
       </c>
-      <c r="O38" s="7">
+      <c r="Q47" s="7">
         <v>42146</v>
       </c>
-      <c r="P38" s="7">
+      <c r="R47" s="7">
         <v>42175</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="9"/>
+    </row>
+    <row r="48" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>41687</v>
+      </c>
+      <c r="D48" s="7">
+        <v>41717</v>
+      </c>
+      <c r="E48" s="7">
+        <v>41795</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H48" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I48" s="7">
+        <v>41881</v>
+      </c>
+      <c r="J48" s="7">
+        <v>41910</v>
+      </c>
+      <c r="K48" s="7">
+        <v>41941</v>
+      </c>
+      <c r="L48" s="7">
+        <v>41993</v>
+      </c>
+      <c r="M48" s="7">
+        <v>42022</v>
+      </c>
+      <c r="N48" s="7">
+        <v>42085</v>
+      </c>
+      <c r="O48" s="7">
+        <v>42113</v>
+      </c>
+      <c r="P48" s="7">
+        <v>42146</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>42175</v>
+      </c>
+      <c r="R48" s="7">
         <v>42203</v>
       </c>
-      <c r="R38" s="7">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="9"/>
+    </row>
+    <row r="49" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="7">
+        <v>41612</v>
+      </c>
+      <c r="D49" s="7">
+        <v>41687</v>
+      </c>
+      <c r="E49" s="7">
+        <v>41717</v>
+      </c>
+      <c r="F49" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G49" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H49" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I49" s="7">
+        <v>41881</v>
+      </c>
+      <c r="J49" s="7">
+        <v>41911</v>
+      </c>
+      <c r="K49" s="7">
+        <v>41941</v>
+      </c>
+      <c r="L49" s="7">
+        <v>41993</v>
+      </c>
+      <c r="M49" s="7">
+        <v>42022</v>
+      </c>
+      <c r="N49" s="7">
+        <v>42085</v>
+      </c>
+      <c r="O49" s="7">
+        <v>42113</v>
+      </c>
+      <c r="P49" s="7">
+        <v>42146</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>42175</v>
+      </c>
+      <c r="R49" s="7">
+        <v>42593</v>
+      </c>
+      <c r="S49" s="7">
         <v>42620</v>
       </c>
-      <c r="S38" s="7">
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+    </row>
+    <row r="50" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="7">
+        <v>41687</v>
+      </c>
+      <c r="D50" s="7">
+        <v>41717</v>
+      </c>
+      <c r="E50" s="7">
+        <v>41795</v>
+      </c>
+      <c r="F50" s="7">
+        <v>41823</v>
+      </c>
+      <c r="G50" s="7">
+        <v>41852</v>
+      </c>
+      <c r="H50" s="7">
+        <v>41881</v>
+      </c>
+      <c r="I50" s="7">
+        <v>41910</v>
+      </c>
+      <c r="J50" s="7">
+        <v>41941</v>
+      </c>
+      <c r="K50" s="7">
+        <v>41993</v>
+      </c>
+      <c r="L50" s="7">
+        <v>42022</v>
+      </c>
+      <c r="M50" s="7">
+        <v>42085</v>
+      </c>
+      <c r="N50" s="7">
+        <v>42113</v>
+      </c>
+      <c r="O50" s="7">
+        <v>42146</v>
+      </c>
+      <c r="P50" s="7">
+        <v>42175</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>42203</v>
+      </c>
+      <c r="R50" s="7">
+        <v>42620</v>
+      </c>
+      <c r="S50" s="7">
         <v>42686</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="1:25" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-    </row>
-    <row r="49" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="2"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="3:18" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="2"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="2"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="2"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="2"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="4"/>
-    </row>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+    </row>
+    <row r="51" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="7">
+        <v>41612</v>
+      </c>
+      <c r="D51" s="7">
+        <v>41687</v>
+      </c>
+      <c r="E51" s="7">
+        <v>41717</v>
+      </c>
+      <c r="F51" s="7">
+        <v>41795</v>
+      </c>
+      <c r="G51" s="7">
+        <v>41823</v>
+      </c>
+      <c r="H51" s="7">
+        <v>41852</v>
+      </c>
+      <c r="I51" s="7">
+        <v>41881</v>
+      </c>
+      <c r="J51" s="7">
+        <v>41911</v>
+      </c>
+      <c r="K51" s="7">
+        <v>41941</v>
+      </c>
+      <c r="L51" s="7">
+        <v>41993</v>
+      </c>
+      <c r="M51" s="7">
+        <v>42022</v>
+      </c>
+      <c r="N51" s="7">
+        <v>42085</v>
+      </c>
+      <c r="O51" s="7">
+        <v>42113</v>
+      </c>
+      <c r="P51" s="7">
+        <v>42146</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>42175</v>
+      </c>
+      <c r="R51" s="7">
+        <v>42593</v>
+      </c>
+      <c r="S51" s="7">
+        <v>42620</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+    </row>
+    <row r="52" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="7">
+        <v>41687</v>
+      </c>
+      <c r="D52" s="7">
+        <v>41717</v>
+      </c>
+      <c r="E52" s="7">
+        <v>41795</v>
+      </c>
+      <c r="F52" s="7">
+        <v>41823</v>
+      </c>
+      <c r="G52" s="7">
+        <v>41852</v>
+      </c>
+      <c r="H52" s="7">
+        <v>41881</v>
+      </c>
+      <c r="I52" s="7">
+        <v>41910</v>
+      </c>
+      <c r="J52" s="7">
+        <v>41941</v>
+      </c>
+      <c r="K52" s="7">
+        <v>41993</v>
+      </c>
+      <c r="L52" s="7">
+        <v>42022</v>
+      </c>
+      <c r="M52" s="7">
+        <v>42085</v>
+      </c>
+      <c r="N52" s="7">
+        <v>42113</v>
+      </c>
+      <c r="O52" s="7">
+        <v>42146</v>
+      </c>
+      <c r="P52" s="7">
+        <v>42175</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>42203</v>
+      </c>
+      <c r="R52" s="7">
+        <v>42620</v>
+      </c>
+      <c r="S52" s="7">
+        <v>42686</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+    </row>
+    <row r="53" spans="1:25" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+    </row>
+    <row r="64" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
       <c r="G73" s="5"/>
@@ -3850,7 +4579,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:18" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
       <c r="G77" s="5"/>
       <c r="H77" s="3"/>
@@ -4150,7 +4879,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
       <c r="G97" s="5"/>
       <c r="H97" s="3"/>
@@ -4165,7 +4894,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
       <c r="G98" s="5"/>
       <c r="H98" s="3"/>
@@ -4180,7 +4909,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
       <c r="G99" s="5"/>
       <c r="H99" s="3"/>
@@ -4195,7 +4924,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="2"/>
       <c r="G100" s="5"/>
       <c r="H100" s="3"/>
@@ -4210,7 +4939,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
       <c r="G101" s="5"/>
       <c r="H101" s="3"/>
@@ -4225,7 +4954,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2"/>
       <c r="G102" s="5"/>
       <c r="H102" s="3"/>
@@ -4240,7 +4969,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
       <c r="G103" s="5"/>
       <c r="H103" s="3"/>
@@ -4255,7 +4984,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2"/>
       <c r="G104" s="5"/>
       <c r="H104" s="3"/>
@@ -4270,7 +4999,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
       <c r="G105" s="5"/>
       <c r="H105" s="3"/>
@@ -4285,7 +5014,7 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2"/>
       <c r="G106" s="5"/>
       <c r="H106" s="3"/>
@@ -4300,7 +5029,7 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
       <c r="G107" s="5"/>
       <c r="H107" s="3"/>
@@ -4315,7 +5044,7 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="2"/>
       <c r="G108" s="5"/>
       <c r="H108" s="3"/>
@@ -4330,7 +5059,7 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
       <c r="G109" s="5"/>
       <c r="H109" s="3"/>
@@ -4345,291 +5074,315 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="9"/>
-    </row>
-    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-    </row>
-    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="9"/>
-    </row>
-    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="2"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="4"/>
+    </row>
+    <row r="111" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="2"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="4"/>
+    </row>
+    <row r="112" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="2"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="4"/>
+    </row>
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="2"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="4"/>
+    </row>
     <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
+      <c r="C114" s="2"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
+      <c r="C115" s="2"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="4"/>
     </row>
     <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="9"/>
-    </row>
-    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C116" s="2"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="4"/>
+    </row>
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="2"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="2"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="4"/>
+    </row>
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="2"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="4"/>
+    </row>
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="2"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="4"/>
+    </row>
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="2"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="4"/>
+    </row>
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="2"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="4"/>
+    </row>
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="2"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+    </row>
     <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="2"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="4"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
     </row>
     <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="2"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="4"/>
-    </row>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="2"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="4"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
     </row>
     <row r="129" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="2"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="4"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
     </row>
     <row r="130" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="2"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="2"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="2"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="2"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="2"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="2"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="2"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="2"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="3"/>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="2"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="3"/>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="4"/>
-    </row>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+    </row>
+    <row r="131" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
       <c r="H139" s="5"/>
@@ -4647,23 +5400,9 @@
     </row>
     <row r="140" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="2"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="4"/>
     </row>
     <row r="141" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
       <c r="H141" s="5"/>
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
@@ -4679,9 +5418,23 @@
     </row>
     <row r="142" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="2"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="4"/>
     </row>
     <row r="143" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="2"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
       <c r="H143" s="5"/>
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
@@ -4712,9 +5465,11 @@
     </row>
     <row r="145" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="2"/>
-      <c r="H145" s="5"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="5"/>
+      <c r="J145" s="3"/>
       <c r="K145" s="4"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -4727,11 +5482,11 @@
     </row>
     <row r="146" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
       <c r="H146" s="5"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="5"/>
       <c r="K146" s="4"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -4744,11 +5499,9 @@
     </row>
     <row r="147" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="2"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="5"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="5"/>
       <c r="K147" s="4"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -4761,11 +5514,11 @@
     </row>
     <row r="148" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="H148" s="5"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="H148" s="3"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="5"/>
+      <c r="J148" s="3"/>
       <c r="K148" s="4"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -4778,33 +5531,13 @@
     </row>
     <row r="149" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="2"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="4"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
     </row>
     <row r="150" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="4"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
     </row>
     <row r="151" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="2"/>
@@ -4823,8 +5556,6 @@
     </row>
     <row r="152" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
       <c r="H152" s="5"/>
       <c r="I152" s="3"/>
       <c r="J152" s="5"/>
@@ -4855,8 +5586,6 @@
     </row>
     <row r="154" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
       <c r="H154" s="5"/>
       <c r="I154" s="3"/>
       <c r="J154" s="5"/>
@@ -4872,6 +5601,8 @@
     </row>
     <row r="155" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="2"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
       <c r="H155" s="5"/>
       <c r="I155" s="3"/>
       <c r="J155" s="5"/>
@@ -4887,18 +5618,6 @@
     </row>
     <row r="156" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="4"/>
     </row>
     <row r="157" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="2"/>
@@ -4947,9 +5666,11 @@
     </row>
     <row r="160" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
       <c r="H160" s="5"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="5"/>
+      <c r="J160" s="3"/>
       <c r="K160" s="4"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -4960,11 +5681,13 @@
       <c r="R160" s="3"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="2"/>
-      <c r="H161" s="5"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="5"/>
+      <c r="J161" s="3"/>
       <c r="K161" s="4"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -4975,8 +5698,10 @@
       <c r="R161" s="3"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
       <c r="H162" s="5"/>
       <c r="I162" s="3"/>
       <c r="J162" s="5"/>
@@ -4990,7 +5715,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="2"/>
       <c r="H163" s="5"/>
       <c r="I163" s="3"/>
@@ -5005,7 +5730,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
       <c r="H164" s="5"/>
       <c r="I164" s="3"/>
@@ -5020,7 +5745,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="2"/>
       <c r="H165" s="5"/>
       <c r="I165" s="3"/>
@@ -5035,8 +5760,10 @@
       <c r="R165" s="3"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
       <c r="H166" s="5"/>
       <c r="I166" s="3"/>
       <c r="J166" s="5"/>
@@ -5050,7 +5777,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="2"/>
       <c r="H167" s="5"/>
       <c r="I167" s="3"/>
@@ -5065,10 +5792,10 @@
       <c r="R167" s="3"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
       <c r="H168" s="5"/>
       <c r="I168" s="3"/>
       <c r="J168" s="5"/>
@@ -5082,7 +5809,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="2"/>
       <c r="H169" s="5"/>
       <c r="I169" s="3"/>
@@ -5097,7 +5824,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
       <c r="H170" s="5"/>
       <c r="I170" s="3"/>
@@ -5112,7 +5839,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="2"/>
       <c r="H171" s="5"/>
       <c r="I171" s="3"/>
@@ -5127,7 +5854,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
       <c r="H172" s="5"/>
       <c r="I172" s="3"/>
@@ -5142,7 +5869,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="2"/>
       <c r="H173" s="5"/>
       <c r="I173" s="3"/>
@@ -5157,7 +5884,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="2"/>
       <c r="H174" s="5"/>
       <c r="I174" s="3"/>
@@ -5172,7 +5899,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="2"/>
       <c r="H175" s="5"/>
       <c r="I175" s="3"/>
@@ -5187,97 +5914,309 @@
       <c r="R175" s="3"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="9"/>
-      <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
-      <c r="N176" s="9"/>
-      <c r="O176" s="9"/>
-      <c r="P176" s="9"/>
-      <c r="Q176" s="9"/>
-      <c r="R176" s="9"/>
-      <c r="S176" s="9"/>
+    <row r="176" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C176" s="2"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="4"/>
     </row>
     <row r="177" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="9"/>
-      <c r="P177" s="9"/>
-      <c r="Q177" s="9"/>
-      <c r="R177" s="9"/>
-      <c r="S177" s="9"/>
+      <c r="C177" s="2"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="4"/>
     </row>
     <row r="178" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
-      <c r="P178" s="9"/>
-      <c r="Q178" s="9"/>
-      <c r="R178" s="9"/>
-      <c r="S178" s="9"/>
-    </row>
-    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C178" s="2"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="4"/>
+    </row>
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" s="2"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="4"/>
+    </row>
+    <row r="180" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="2"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="4"/>
+    </row>
+    <row r="181" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" s="2"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="4"/>
+    </row>
+    <row r="182" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C182" s="2"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="4"/>
+    </row>
+    <row r="183" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C183" s="2"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="4"/>
+    </row>
+    <row r="184" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C184" s="2"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="4"/>
+    </row>
+    <row r="185" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C185" s="2"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="4"/>
+    </row>
+    <row r="186" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C186" s="2"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="4"/>
+    </row>
+    <row r="187" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C187" s="2"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="4"/>
+    </row>
+    <row r="188" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C188" s="2"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="4"/>
+    </row>
+    <row r="189" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C189" s="2"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="4"/>
+    </row>
+    <row r="190" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="10"/>
+      <c r="S190" s="10"/>
+    </row>
+    <row r="191" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+    </row>
+    <row r="192" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+    </row>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A178:S178"/>
-    <mergeCell ref="C111:R111"/>
-    <mergeCell ref="A110:R110"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="C126:R126"/>
+    <mergeCell ref="A128:S128"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="P130:R130"/>
+    <mergeCell ref="A192:S192"/>
+    <mergeCell ref="C125:R125"/>
+    <mergeCell ref="A124:R124"/>
+    <mergeCell ref="E166:F166"/>
     <mergeCell ref="E168:F168"/>
-    <mergeCell ref="A176:S176"/>
-    <mergeCell ref="C177:S177"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="A190:S190"/>
+    <mergeCell ref="C191:S191"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E145:F145"/>
     <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="C112:R112"/>
-    <mergeCell ref="A114:S114"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="P116:R116"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="E134:F134"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
